--- a/documentation/asciidoc/implementation_guide/attached_doc/excel_payload_input_file.xlsx
+++ b/documentation/asciidoc/implementation_guide/attached_doc/excel_payload_input_file.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="160">
   <si>
     <t xml:space="preserve">verb</t>
   </si>
@@ -73,6 +73,9 @@
     <t xml:space="preserve">recipients</t>
   </si>
   <si>
+    <t xml:space="preserve">caseId</t>
+  </si>
+  <si>
     <t xml:space="preserve">created</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">10XBA-JPCCZEKC-K; 10XAL-KESH-----J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessNotifTypeA_20210609_001</t>
   </si>
   <si>
     <t xml:space="preserve">dataType</t>
@@ -1071,10 +1077,10 @@
   </sheetPr>
   <dimension ref="A1:U288"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1092,13 +1098,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="21" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,56 +1156,62 @@
       <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="T1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="9" t="n">
         <v>102</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="9" t="n">
         <v>24</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="T2" s="0"/>
     </row>
@@ -1220,32 +1232,33 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1263,10 +1276,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -1274,7 +1287,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -1292,10 +1305,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1303,7 +1316,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -1321,10 +1334,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1332,7 +1345,7 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
       <c r="H7" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -1350,20 +1363,20 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -1381,20 +1394,20 @@
     </row>
     <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1412,20 +1425,20 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1442,20 +1455,20 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1472,20 +1485,20 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1502,20 +1515,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1533,20 +1546,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1564,20 +1577,20 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1595,20 +1608,20 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="24" t="n">
@@ -1630,20 +1643,20 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="36" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>65</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="27" t="n">
@@ -1665,20 +1678,20 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="37" t="n">
@@ -1700,20 +1713,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>69</v>
-      </c>
       <c r="F19" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="37" t="n">
@@ -1735,20 +1748,20 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G20" s="18"/>
       <c r="H20" s="37" t="n">
@@ -1770,23 +1783,23 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="27" t="n">
         <v>0</v>
@@ -1807,23 +1820,23 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" s="27" t="n">
         <v>1</v>
@@ -1844,23 +1857,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" s="27" t="n">
         <v>0</v>
@@ -1881,23 +1894,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H24" s="27" t="n">
         <v>1</v>
@@ -1918,23 +1931,23 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" s="27" t="n">
         <v>0</v>
@@ -1955,23 +1968,23 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H26" s="27" t="n">
         <v>1</v>
@@ -1992,23 +2005,23 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" s="27" t="n">
         <v>1</v>
@@ -2029,23 +2042,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28" s="27" t="n">
         <v>1</v>
@@ -2066,23 +2079,23 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H29" s="27" t="n">
         <v>0</v>
@@ -2103,23 +2116,23 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>79</v>
       </c>
       <c r="H30" s="27" t="n">
         <v>1</v>
@@ -2140,23 +2153,23 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H31" s="27" t="n">
         <v>55</v>
@@ -2177,23 +2190,23 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H32" s="27" t="n">
         <v>57</v>
@@ -2214,23 +2227,23 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H33" s="27" t="n">
         <v>87</v>
@@ -2251,23 +2264,23 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H34" s="27" t="n">
         <v>91</v>
@@ -2288,23 +2301,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H35" s="27" t="n">
         <v>21</v>
@@ -2325,23 +2338,23 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" s="27" t="n">
         <v>71</v>
@@ -2362,23 +2375,23 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H37" s="27" t="n">
         <v>79</v>
@@ -2399,23 +2412,23 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H38" s="27" t="n">
         <v>42</v>
@@ -2436,23 +2449,23 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H39" s="27" t="n">
         <v>4</v>
@@ -2473,23 +2486,23 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H40" s="27" t="n">
         <v>58</v>
@@ -2510,23 +2523,23 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H41" s="27" t="n">
         <v>2</v>
@@ -2547,23 +2560,23 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H42" s="27" t="n">
         <v>63</v>
@@ -2584,23 +2597,23 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H43" s="27" t="n">
         <v>48</v>
@@ -2621,23 +2634,23 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H44" s="27" t="n">
         <v>30</v>
@@ -2658,23 +2671,23 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" s="27" t="n">
         <v>32</v>
@@ -2695,23 +2708,23 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H46" s="27" t="n">
         <v>11</v>
@@ -2732,23 +2745,23 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H47" s="27" t="n">
         <v>88</v>
@@ -2769,23 +2782,23 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H48" s="27" t="n">
         <v>65</v>
@@ -2806,23 +2819,23 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H49" s="27" t="n">
         <v>4</v>
@@ -2843,23 +2856,23 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F50" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" s="27" t="n">
         <v>39</v>
@@ -2880,23 +2893,23 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H51" s="27" t="n">
         <v>45</v>
@@ -2917,23 +2930,23 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H52" s="27" t="n">
         <v>54</v>
@@ -2954,23 +2967,23 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H53" s="27" t="n">
         <v>6</v>
@@ -2991,23 +3004,23 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H54" s="27" t="n">
         <v>2</v>
@@ -3028,23 +3041,23 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H55" s="27" t="n">
         <v>49</v>
@@ -3065,23 +3078,23 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H56" s="27" t="n">
         <v>54</v>
@@ -3102,23 +3115,23 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H57" s="27" t="n">
         <v>10</v>
@@ -3139,23 +3152,23 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H58" s="27" t="n">
         <v>90</v>
@@ -3176,23 +3189,23 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H59" s="27" t="n">
         <v>98</v>
@@ -3213,23 +3226,23 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H60" s="27" t="n">
         <v>92</v>
@@ -3250,16 +3263,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G61" s="39"/>
       <c r="H61" s="24" t="n">
@@ -3281,16 +3294,16 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
       <c r="F62" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="27" t="n">
@@ -3312,16 +3325,16 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
       <c r="F63" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G63" s="38"/>
       <c r="H63" s="27" t="n">
@@ -3343,16 +3356,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G64" s="38"/>
       <c r="H64" s="27" t="n">
@@ -3374,16 +3387,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G65" s="38"/>
       <c r="H65" s="27" t="n">
@@ -3405,16 +3418,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G66" s="38"/>
       <c r="H66" s="27" t="n">
@@ -3436,16 +3449,16 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="27" t="n">
@@ -3467,16 +3480,16 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
       <c r="F68" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="27" t="n">
@@ -3498,16 +3511,16 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G69" s="38"/>
       <c r="H69" s="27" t="n">
@@ -3529,16 +3542,16 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
       <c r="F70" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="27" t="n">
@@ -3560,16 +3573,16 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
       <c r="F71" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G71" s="38"/>
       <c r="H71" s="27" t="n">
@@ -3580,16 +3593,16 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
       <c r="F72" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G72" s="38"/>
       <c r="H72" s="27" t="n">
@@ -3600,16 +3613,16 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G73" s="38"/>
       <c r="H73" s="27" t="n">
@@ -3620,16 +3633,16 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G74" s="38"/>
       <c r="H74" s="27" t="n">
@@ -3640,16 +3653,16 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G75" s="38"/>
       <c r="H75" s="27" t="n">
@@ -3660,16 +3673,16 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
       <c r="F76" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G76" s="38"/>
       <c r="H76" s="27" t="n">
@@ -3680,16 +3693,16 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
       <c r="F77" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G77" s="38"/>
       <c r="H77" s="27" t="n">
@@ -3699,16 +3712,16 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
       <c r="F78" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="27" t="n">
@@ -3718,16 +3731,16 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G79" s="38"/>
       <c r="H79" s="27" t="n">
@@ -3737,16 +3750,16 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G80" s="38"/>
       <c r="H80" s="27" t="n">
@@ -3756,16 +3769,16 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
       <c r="F81" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G81" s="38"/>
       <c r="H81" s="27" t="n">
@@ -3775,16 +3788,16 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G82" s="38"/>
       <c r="H82" s="27" t="n">
@@ -3793,16 +3806,16 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
       <c r="F83" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G83" s="38"/>
       <c r="H83" s="27" t="n">
@@ -3811,16 +3824,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
       <c r="F84" s="36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G84" s="38"/>
       <c r="H84" s="27" t="n">
@@ -3829,58 +3842,58 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" s="39"/>
       <c r="D85" s="23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G85" s="43"/>
       <c r="H85" s="44" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G86" s="45"/>
       <c r="H86" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G87" s="45"/>
       <c r="H87" s="37" t="n">
@@ -3889,58 +3902,58 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G88" s="45"/>
       <c r="H88" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G89" s="45"/>
       <c r="H89" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G90" s="45"/>
       <c r="H90" s="37" t="n">
@@ -3949,58 +3962,58 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G91" s="45"/>
       <c r="H91" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G92" s="45"/>
       <c r="H92" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G93" s="45"/>
       <c r="H93" s="37" t="n">
@@ -4009,58 +4022,58 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G94" s="45"/>
       <c r="H94" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G95" s="45"/>
       <c r="H95" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="36" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G96" s="45"/>
       <c r="H96" s="37" t="n">
@@ -4069,58 +4082,58 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G97" s="45"/>
       <c r="H97" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G98" s="45"/>
       <c r="H98" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G99" s="45"/>
       <c r="H99" s="37" t="n">
@@ -4129,58 +4142,58 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G100" s="45"/>
       <c r="H100" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G101" s="45"/>
       <c r="H101" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="38"/>
       <c r="F102" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G102" s="45"/>
       <c r="H102" s="37" t="n">
@@ -4189,58 +4202,58 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G103" s="45"/>
       <c r="H103" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G104" s="45"/>
       <c r="H104" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G105" s="45"/>
       <c r="H105" s="37" t="n">
@@ -4249,58 +4262,58 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G106" s="45"/>
       <c r="H106" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G107" s="45"/>
       <c r="H107" s="37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G108" s="45"/>
       <c r="H108" s="37" t="n">
@@ -4309,58 +4322,58 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C109" s="38"/>
       <c r="D109" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G109" s="45"/>
       <c r="H109" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G110" s="45"/>
       <c r="H110" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G111" s="45"/>
       <c r="H111" s="37" t="n">
@@ -4369,58 +4382,58 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C112" s="38"/>
       <c r="D112" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G112" s="45"/>
       <c r="H112" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G113" s="45"/>
       <c r="H113" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C114" s="38"/>
       <c r="D114" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G114" s="45"/>
       <c r="H114" s="37" t="n">
@@ -4429,58 +4442,58 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G115" s="45"/>
       <c r="H115" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G116" s="45"/>
       <c r="H116" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C117" s="38"/>
       <c r="D117" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G117" s="45"/>
       <c r="H117" s="37" t="n">
@@ -4489,58 +4502,58 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G118" s="45"/>
       <c r="H118" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G119" s="45"/>
       <c r="H119" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G120" s="45"/>
       <c r="H120" s="37" t="n">
@@ -4549,58 +4562,58 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G121" s="45"/>
       <c r="H121" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G122" s="45"/>
       <c r="H122" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G123" s="45"/>
       <c r="H123" s="37" t="n">
@@ -4609,58 +4622,58 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C124" s="38"/>
       <c r="D124" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G124" s="45"/>
       <c r="H124" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C125" s="38"/>
       <c r="D125" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G125" s="45"/>
       <c r="H125" s="37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G126" s="45"/>
       <c r="H126" s="37" t="n">
@@ -4669,58 +4682,58 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G127" s="45"/>
       <c r="H127" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C128" s="38"/>
       <c r="D128" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G128" s="45"/>
       <c r="H128" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G129" s="45"/>
       <c r="H129" s="37" t="n">
@@ -4729,58 +4742,58 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G130" s="45"/>
       <c r="H130" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G131" s="45"/>
       <c r="H131" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G132" s="45"/>
       <c r="H132" s="37" t="n">
@@ -4789,58 +4802,58 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G133" s="45"/>
       <c r="H133" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G134" s="45"/>
       <c r="H134" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C135" s="38"/>
       <c r="D135" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G135" s="45"/>
       <c r="H135" s="37" t="n">
@@ -4849,58 +4862,58 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G136" s="45"/>
       <c r="H136" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C137" s="38"/>
       <c r="D137" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G137" s="45"/>
       <c r="H137" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C138" s="38"/>
       <c r="D138" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E138" s="38"/>
       <c r="F138" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G138" s="45"/>
       <c r="H138" s="37" t="n">
@@ -4909,58 +4922,58 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G139" s="45"/>
       <c r="H139" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G140" s="45"/>
       <c r="H140" s="37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E141" s="38"/>
       <c r="F141" s="36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G141" s="45"/>
       <c r="H141" s="37" t="n">
@@ -4969,58 +4982,58 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C142" s="38"/>
       <c r="D142" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G142" s="45"/>
       <c r="H142" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C143" s="38"/>
       <c r="D143" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G143" s="45"/>
       <c r="H143" s="37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C144" s="38"/>
       <c r="D144" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E144" s="38"/>
       <c r="F144" s="36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G144" s="45"/>
       <c r="H144" s="37" t="n">
@@ -5029,58 +5042,58 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C145" s="38"/>
       <c r="D145" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G145" s="45"/>
       <c r="H145" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C146" s="38"/>
       <c r="D146" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G146" s="45"/>
       <c r="H146" s="37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C147" s="38"/>
       <c r="D147" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E147" s="38"/>
       <c r="F147" s="36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G147" s="45"/>
       <c r="H147" s="37" t="n">
@@ -5089,58 +5102,58 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C148" s="38"/>
       <c r="D148" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G148" s="45"/>
       <c r="H148" s="37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G149" s="45"/>
       <c r="H149" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C150" s="38"/>
       <c r="D150" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E150" s="38"/>
       <c r="F150" s="36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G150" s="45"/>
       <c r="H150" s="37" t="n">
@@ -5149,58 +5162,58 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C151" s="38"/>
       <c r="D151" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G151" s="45"/>
       <c r="H151" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C152" s="38"/>
       <c r="D152" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G152" s="45"/>
       <c r="H152" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B153" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C153" s="38"/>
       <c r="D153" s="38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E153" s="38"/>
       <c r="F153" s="36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G153" s="45"/>
       <c r="H153" s="37" t="n">
@@ -5209,58 +5222,58 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C154" s="38"/>
       <c r="D154" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G154" s="45"/>
       <c r="H154" s="37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C155" s="38"/>
       <c r="D155" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G155" s="45"/>
       <c r="H155" s="37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C156" s="46"/>
       <c r="D156" s="46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E156" s="46"/>
       <c r="F156" s="47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G156" s="48"/>
       <c r="H156" s="49" t="n">
@@ -5269,68 +5282,68 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C157" s="39" t="n">
         <v>1</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E157" s="23"/>
       <c r="F157" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H157" s="44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C158" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G158" s="45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C159" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E159" s="38"/>
       <c r="F159" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G159" s="45"/>
       <c r="H159" s="37" t="n">
@@ -5339,92 +5352,92 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C160" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G160" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H160" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C161" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G161" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H161" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C162" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H162" s="37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C163" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G163" s="45"/>
       <c r="H163" s="37" t="n">
@@ -5433,20 +5446,20 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C164" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G164" s="45"/>
       <c r="H164" s="37" t="n">
@@ -5455,68 +5468,68 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C165" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G165" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H165" s="37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C166" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G166" s="45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C167" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D167" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E167" s="38"/>
       <c r="F167" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G167" s="45"/>
       <c r="H167" s="37" t="n">
@@ -5525,92 +5538,92 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C168" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G168" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H168" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C169" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G169" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H169" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C170" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D170" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G170" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H170" s="37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C171" s="38" t="n">
         <v>1</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G171" s="45"/>
       <c r="H171" s="37" t="n">
@@ -5619,20 +5632,20 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C172" s="46" t="n">
         <v>1</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E172" s="29"/>
       <c r="F172" s="47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G172" s="48"/>
       <c r="H172" s="49" t="n">
@@ -5641,68 +5654,68 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C173" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G173" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H173" s="37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C174" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G174" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H174" s="37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C175" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D175" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E175" s="38"/>
       <c r="F175" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G175" s="45"/>
       <c r="H175" s="37" t="n">
@@ -5711,116 +5724,116 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C176" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G176" s="45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H176" s="37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C177" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G177" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H177" s="37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C178" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D178" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G178" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H178" s="37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C179" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H179" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C180" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G180" s="45"/>
       <c r="H180" s="37" t="n">
@@ -5829,20 +5842,20 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C181" s="38" t="n">
         <v>2</v>
       </c>
       <c r="D181" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G181" s="45"/>
       <c r="H181" s="37" t="n">
@@ -5851,86 +5864,86 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C182" s="39" t="n">
         <v>3</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E182" s="23"/>
       <c r="F182" s="35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G182" s="43"/>
       <c r="H182" s="44" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C183" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G183" s="45"/>
       <c r="H183" s="37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C184" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G184" s="45"/>
       <c r="H184" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C185" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E185" s="38"/>
       <c r="F185" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G185" s="45"/>
       <c r="H185" s="37" t="n">
@@ -5939,20 +5952,20 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C186" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D186" s="18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G186" s="45"/>
       <c r="H186" s="37" t="n">
@@ -5961,116 +5974,116 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C187" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G187" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H187" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C188" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G188" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C189" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D189" s="18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G189" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C190" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D190" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G190" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H190" s="37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C191" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E191" s="18"/>
       <c r="F191" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G191" s="45"/>
       <c r="H191" s="37" t="n">
@@ -6079,20 +6092,20 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C192" s="38" t="n">
         <v>3</v>
       </c>
       <c r="D192" s="18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E192" s="18"/>
       <c r="F192" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G192" s="45"/>
       <c r="H192" s="37" t="n">
@@ -6101,21 +6114,21 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B193" s="51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C193" s="51"/>
       <c r="D193" s="51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E193" s="51"/>
       <c r="F193" s="52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G193" s="53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H193" s="54" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6124,21 +6137,21 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B194" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C194" s="56"/>
       <c r="D194" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E194" s="56"/>
       <c r="F194" s="57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G194" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H194" s="59" t="n">
         <f aca="false">H193</f>
@@ -6147,21 +6160,21 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B195" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C195" s="56"/>
       <c r="D195" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E195" s="56"/>
       <c r="F195" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G195" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H195" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6170,21 +6183,21 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B196" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C196" s="56"/>
       <c r="D196" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E196" s="56"/>
       <c r="F196" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G196" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H196" s="59" t="n">
         <f aca="false">H195</f>
@@ -6193,21 +6206,21 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B197" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C197" s="56"/>
       <c r="D197" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E197" s="56"/>
       <c r="F197" s="57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G197" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H197" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6216,21 +6229,21 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B198" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C198" s="56"/>
       <c r="D198" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E198" s="56"/>
       <c r="F198" s="57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G198" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H198" s="59" t="n">
         <f aca="false">H197</f>
@@ -6239,21 +6252,21 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B199" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C199" s="56"/>
       <c r="D199" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E199" s="56"/>
       <c r="F199" s="57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G199" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H199" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6262,21 +6275,21 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B200" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C200" s="56"/>
       <c r="D200" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E200" s="56"/>
       <c r="F200" s="57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G200" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H200" s="59" t="n">
         <f aca="false">H199</f>
@@ -6285,21 +6298,21 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B201" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C201" s="56"/>
       <c r="D201" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E201" s="56"/>
       <c r="F201" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G201" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H201" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6308,21 +6321,21 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B202" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C202" s="56"/>
       <c r="D202" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E202" s="56"/>
       <c r="F202" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G202" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H202" s="59" t="n">
         <f aca="false">H201</f>
@@ -6331,21 +6344,21 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B203" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C203" s="56"/>
       <c r="D203" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E203" s="56"/>
       <c r="F203" s="57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G203" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H203" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6354,21 +6367,21 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B204" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C204" s="56"/>
       <c r="D204" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E204" s="56"/>
       <c r="F204" s="57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G204" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H204" s="59" t="n">
         <f aca="false">H203</f>
@@ -6377,21 +6390,21 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C205" s="56"/>
       <c r="D205" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E205" s="56"/>
       <c r="F205" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G205" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H205" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6400,21 +6413,21 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B206" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C206" s="56"/>
       <c r="D206" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E206" s="56"/>
       <c r="F206" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G206" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H206" s="59" t="n">
         <f aca="false">H205</f>
@@ -6423,21 +6436,21 @@
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B207" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C207" s="56"/>
       <c r="D207" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E207" s="56"/>
       <c r="F207" s="57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G207" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H207" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6446,21 +6459,21 @@
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B208" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C208" s="56"/>
       <c r="D208" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E208" s="56"/>
       <c r="F208" s="57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G208" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H208" s="59" t="n">
         <f aca="false">H207</f>
@@ -6469,21 +6482,21 @@
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B209" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C209" s="56"/>
       <c r="D209" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E209" s="56"/>
       <c r="F209" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G209" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H209" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6492,21 +6505,21 @@
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B210" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C210" s="56"/>
       <c r="D210" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E210" s="56"/>
       <c r="F210" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G210" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H210" s="59" t="n">
         <f aca="false">H209</f>
@@ -6515,21 +6528,21 @@
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B211" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C211" s="56"/>
       <c r="D211" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E211" s="56"/>
       <c r="F211" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G211" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H211" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6538,21 +6551,21 @@
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B212" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C212" s="56"/>
       <c r="D212" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E212" s="56"/>
       <c r="F212" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G212" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H212" s="59" t="n">
         <f aca="false">H211</f>
@@ -6561,21 +6574,21 @@
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B213" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C213" s="56"/>
       <c r="D213" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E213" s="56"/>
       <c r="F213" s="57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G213" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H213" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6585,21 +6598,21 @@
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B214" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C214" s="56"/>
       <c r="D214" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E214" s="56"/>
       <c r="F214" s="57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G214" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H214" s="59" t="n">
         <f aca="false">H213</f>
@@ -6608,21 +6621,21 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B215" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C215" s="56"/>
       <c r="D215" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E215" s="56"/>
       <c r="F215" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G215" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H215" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6631,21 +6644,21 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B216" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C216" s="56"/>
       <c r="D216" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E216" s="56"/>
       <c r="F216" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G216" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H216" s="59" t="n">
         <f aca="false">H215</f>
@@ -6654,21 +6667,21 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B217" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C217" s="56"/>
       <c r="D217" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E217" s="56"/>
       <c r="F217" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G217" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H217" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6677,21 +6690,21 @@
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B218" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C218" s="56"/>
       <c r="D218" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E218" s="56"/>
       <c r="F218" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G218" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H218" s="59" t="n">
         <f aca="false">H217</f>
@@ -6700,21 +6713,21 @@
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B219" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C219" s="56"/>
       <c r="D219" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E219" s="56"/>
       <c r="F219" s="57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G219" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H219" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6723,21 +6736,21 @@
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B220" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C220" s="56"/>
       <c r="D220" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E220" s="56"/>
       <c r="F220" s="57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G220" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H220" s="59" t="n">
         <f aca="false">H219</f>
@@ -6746,21 +6759,21 @@
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B221" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C221" s="56"/>
       <c r="D221" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E221" s="56"/>
       <c r="F221" s="57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G221" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H221" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6769,21 +6782,21 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B222" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C222" s="56"/>
       <c r="D222" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E222" s="56"/>
       <c r="F222" s="57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G222" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H222" s="59" t="n">
         <f aca="false">H221</f>
@@ -6792,21 +6805,21 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B223" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C223" s="56"/>
       <c r="D223" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E223" s="56"/>
       <c r="F223" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G223" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H223" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6815,21 +6828,21 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B224" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C224" s="56"/>
       <c r="D224" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E224" s="56"/>
       <c r="F224" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G224" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H224" s="59" t="n">
         <f aca="false">H223</f>
@@ -6838,21 +6851,21 @@
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B225" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C225" s="56"/>
       <c r="D225" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E225" s="56"/>
       <c r="F225" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G225" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H225" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6861,21 +6874,21 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B226" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C226" s="56"/>
       <c r="D226" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E226" s="56"/>
       <c r="F226" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G226" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H226" s="59" t="n">
         <f aca="false">H225</f>
@@ -6884,21 +6897,21 @@
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B227" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C227" s="56"/>
       <c r="D227" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E227" s="56"/>
       <c r="F227" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G227" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H227" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6907,21 +6920,21 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B228" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C228" s="56"/>
       <c r="D228" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E228" s="56"/>
       <c r="F228" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G228" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H228" s="59" t="n">
         <f aca="false">H227</f>
@@ -6930,21 +6943,21 @@
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B229" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C229" s="56"/>
       <c r="D229" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E229" s="56"/>
       <c r="F229" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G229" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H229" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6953,21 +6966,21 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B230" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C230" s="56"/>
       <c r="D230" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E230" s="56"/>
       <c r="F230" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G230" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H230" s="59" t="n">
         <f aca="false">H229</f>
@@ -6976,21 +6989,21 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B231" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C231" s="56"/>
       <c r="D231" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E231" s="56"/>
       <c r="F231" s="57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G231" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H231" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -6999,21 +7012,21 @@
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B232" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C232" s="56"/>
       <c r="D232" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E232" s="56"/>
       <c r="F232" s="57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G232" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H232" s="59" t="n">
         <f aca="false">H231</f>
@@ -7022,21 +7035,21 @@
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B233" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C233" s="56"/>
       <c r="D233" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E233" s="56"/>
       <c r="F233" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G233" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H233" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7045,21 +7058,21 @@
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B234" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C234" s="56"/>
       <c r="D234" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E234" s="56"/>
       <c r="F234" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G234" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H234" s="59" t="n">
         <f aca="false">H233</f>
@@ -7068,21 +7081,21 @@
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B235" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C235" s="56"/>
       <c r="D235" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E235" s="56"/>
       <c r="F235" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G235" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H235" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7091,21 +7104,21 @@
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B236" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C236" s="56"/>
       <c r="D236" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E236" s="56"/>
       <c r="F236" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G236" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H236" s="59" t="n">
         <f aca="false">H235</f>
@@ -7114,21 +7127,21 @@
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B237" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C237" s="56"/>
       <c r="D237" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E237" s="56"/>
       <c r="F237" s="57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G237" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H237" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7137,21 +7150,21 @@
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B238" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C238" s="56"/>
       <c r="D238" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E238" s="56"/>
       <c r="F238" s="57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G238" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H238" s="59" t="n">
         <f aca="false">H237</f>
@@ -7160,21 +7173,21 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B239" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C239" s="56"/>
       <c r="D239" s="56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E239" s="56"/>
       <c r="F239" s="57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G239" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H239" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7183,21 +7196,21 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B240" s="62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C240" s="62"/>
       <c r="D240" s="62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E240" s="62"/>
       <c r="F240" s="63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G240" s="64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H240" s="65" t="n">
         <f aca="false">H239</f>
@@ -7206,21 +7219,21 @@
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B241" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C241" s="56"/>
       <c r="D241" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E241" s="56"/>
       <c r="F241" s="57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G241" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H241" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7229,21 +7242,21 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B242" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C242" s="56"/>
       <c r="D242" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E242" s="56"/>
       <c r="F242" s="57" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G242" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H242" s="59" t="n">
         <f aca="false">H241</f>
@@ -7252,21 +7265,21 @@
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B243" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C243" s="56"/>
       <c r="D243" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E243" s="56"/>
       <c r="F243" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G243" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H243" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7275,21 +7288,21 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B244" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C244" s="56"/>
       <c r="D244" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E244" s="56"/>
       <c r="F244" s="57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G244" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H244" s="59" t="n">
         <f aca="false">H243</f>
@@ -7298,21 +7311,21 @@
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B245" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C245" s="56"/>
       <c r="D245" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E245" s="56"/>
       <c r="F245" s="57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G245" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H245" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7321,21 +7334,21 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B246" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C246" s="56"/>
       <c r="D246" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E246" s="56"/>
       <c r="F246" s="57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G246" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H246" s="59" t="n">
         <f aca="false">H245</f>
@@ -7344,21 +7357,21 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B247" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C247" s="56"/>
       <c r="D247" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E247" s="56"/>
       <c r="F247" s="57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G247" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H247" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7367,21 +7380,21 @@
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B248" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C248" s="56"/>
       <c r="D248" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E248" s="56"/>
       <c r="F248" s="57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G248" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H248" s="59" t="n">
         <f aca="false">H247</f>
@@ -7390,21 +7403,21 @@
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B249" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C249" s="56"/>
       <c r="D249" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E249" s="56"/>
       <c r="F249" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G249" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H249" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7413,21 +7426,21 @@
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B250" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C250" s="56"/>
       <c r="D250" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E250" s="56"/>
       <c r="F250" s="57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G250" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H250" s="59" t="n">
         <f aca="false">H249</f>
@@ -7436,21 +7449,21 @@
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B251" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C251" s="56"/>
       <c r="D251" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E251" s="56"/>
       <c r="F251" s="57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G251" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H251" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7459,21 +7472,21 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B252" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C252" s="56"/>
       <c r="D252" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E252" s="56"/>
       <c r="F252" s="57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G252" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H252" s="59" t="n">
         <f aca="false">H251</f>
@@ -7482,21 +7495,21 @@
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B253" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C253" s="56"/>
       <c r="D253" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E253" s="56"/>
       <c r="F253" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G253" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H253" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7505,21 +7518,21 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B254" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C254" s="56"/>
       <c r="D254" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E254" s="56"/>
       <c r="F254" s="57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G254" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H254" s="59" t="n">
         <f aca="false">H253</f>
@@ -7528,21 +7541,21 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B255" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C255" s="56"/>
       <c r="D255" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E255" s="56"/>
       <c r="F255" s="57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G255" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H255" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7551,21 +7564,21 @@
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B256" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C256" s="56"/>
       <c r="D256" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E256" s="56"/>
       <c r="F256" s="57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G256" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H256" s="59" t="n">
         <f aca="false">H255</f>
@@ -7574,21 +7587,21 @@
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B257" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C257" s="56"/>
       <c r="D257" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E257" s="56"/>
       <c r="F257" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G257" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H257" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7597,21 +7610,21 @@
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B258" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C258" s="56"/>
       <c r="D258" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E258" s="56"/>
       <c r="F258" s="57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G258" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H258" s="59" t="n">
         <f aca="false">H257</f>
@@ -7620,21 +7633,21 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B259" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C259" s="56"/>
       <c r="D259" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E259" s="56"/>
       <c r="F259" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G259" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H259" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7643,21 +7656,21 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B260" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C260" s="56"/>
       <c r="D260" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E260" s="56"/>
       <c r="F260" s="57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G260" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H260" s="59" t="n">
         <f aca="false">H259</f>
@@ -7666,21 +7679,21 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B261" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C261" s="56"/>
       <c r="D261" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E261" s="56"/>
       <c r="F261" s="57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G261" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H261" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7689,21 +7702,21 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B262" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C262" s="56"/>
       <c r="D262" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E262" s="56"/>
       <c r="F262" s="57" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G262" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H262" s="59" t="n">
         <f aca="false">H261</f>
@@ -7712,21 +7725,21 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B263" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C263" s="56"/>
       <c r="D263" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E263" s="56"/>
       <c r="F263" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G263" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H263" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7735,21 +7748,21 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B264" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C264" s="56"/>
       <c r="D264" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E264" s="56"/>
       <c r="F264" s="57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G264" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H264" s="59" t="n">
         <f aca="false">H263</f>
@@ -7758,21 +7771,21 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B265" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C265" s="56"/>
       <c r="D265" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E265" s="56"/>
       <c r="F265" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G265" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H265" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7781,21 +7794,21 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B266" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C266" s="56"/>
       <c r="D266" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E266" s="56"/>
       <c r="F266" s="57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G266" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H266" s="59" t="n">
         <f aca="false">H265</f>
@@ -7804,21 +7817,21 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B267" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C267" s="56"/>
       <c r="D267" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E267" s="56"/>
       <c r="F267" s="57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G267" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H267" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7827,21 +7840,21 @@
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B268" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C268" s="56"/>
       <c r="D268" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E268" s="56"/>
       <c r="F268" s="57" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G268" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H268" s="59" t="n">
         <f aca="false">H267</f>
@@ -7850,21 +7863,21 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B269" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C269" s="56"/>
       <c r="D269" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E269" s="56"/>
       <c r="F269" s="57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G269" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H269" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7873,21 +7886,21 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B270" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C270" s="56"/>
       <c r="D270" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E270" s="56"/>
       <c r="F270" s="57" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G270" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H270" s="59" t="n">
         <f aca="false">H269</f>
@@ -7896,21 +7909,21 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B271" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C271" s="56"/>
       <c r="D271" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E271" s="56"/>
       <c r="F271" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G271" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H271" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7919,21 +7932,21 @@
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B272" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C272" s="56"/>
       <c r="D272" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E272" s="56"/>
       <c r="F272" s="57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G272" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H272" s="59" t="n">
         <f aca="false">H271</f>
@@ -7942,21 +7955,21 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B273" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C273" s="56"/>
       <c r="D273" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E273" s="56"/>
       <c r="F273" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G273" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H273" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -7965,21 +7978,21 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B274" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C274" s="56"/>
       <c r="D274" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E274" s="56"/>
       <c r="F274" s="57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G274" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H274" s="59" t="n">
         <f aca="false">H273</f>
@@ -7988,21 +8001,21 @@
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B275" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C275" s="56"/>
       <c r="D275" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E275" s="56"/>
       <c r="F275" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G275" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H275" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8011,21 +8024,21 @@
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B276" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C276" s="56"/>
       <c r="D276" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E276" s="56"/>
       <c r="F276" s="57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G276" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H276" s="59" t="n">
         <f aca="false">H275</f>
@@ -8034,21 +8047,21 @@
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B277" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C277" s="56"/>
       <c r="D277" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E277" s="56"/>
       <c r="F277" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G277" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H277" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8057,21 +8070,21 @@
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B278" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C278" s="56"/>
       <c r="D278" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E278" s="56"/>
       <c r="F278" s="57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G278" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H278" s="59" t="n">
         <f aca="false">H277</f>
@@ -8080,21 +8093,21 @@
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B279" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C279" s="56"/>
       <c r="D279" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E279" s="56"/>
       <c r="F279" s="57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G279" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H279" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8103,21 +8116,21 @@
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B280" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C280" s="56"/>
       <c r="D280" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E280" s="56"/>
       <c r="F280" s="57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G280" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H280" s="59" t="n">
         <f aca="false">H279</f>
@@ -8126,21 +8139,21 @@
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B281" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C281" s="56"/>
       <c r="D281" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E281" s="56"/>
       <c r="F281" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G281" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H281" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8149,21 +8162,21 @@
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B282" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C282" s="56"/>
       <c r="D282" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E282" s="56"/>
       <c r="F282" s="57" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G282" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H282" s="59" t="n">
         <f aca="false">H281</f>
@@ -8172,21 +8185,21 @@
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B283" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C283" s="56"/>
       <c r="D283" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E283" s="56"/>
       <c r="F283" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G283" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H283" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8195,21 +8208,21 @@
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B284" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C284" s="56"/>
       <c r="D284" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E284" s="56"/>
       <c r="F284" s="57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G284" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H284" s="59" t="n">
         <f aca="false">H283</f>
@@ -8218,21 +8231,21 @@
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B285" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C285" s="56"/>
       <c r="D285" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E285" s="56"/>
       <c r="F285" s="57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G285" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H285" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8241,21 +8254,21 @@
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B286" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C286" s="56"/>
       <c r="D286" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E286" s="56"/>
       <c r="F286" s="57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G286" s="58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H286" s="59" t="n">
         <f aca="false">H285</f>
@@ -8264,21 +8277,21 @@
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B287" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C287" s="56"/>
       <c r="D287" s="56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E287" s="56"/>
       <c r="F287" s="57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G287" s="58" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H287" s="59" t="n">
         <f aca="false">RANDBETWEEN(1000,6000)</f>
@@ -8287,21 +8300,21 @@
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B288" s="62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C288" s="62"/>
       <c r="D288" s="62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E288" s="62"/>
       <c r="F288" s="63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G288" s="64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H288" s="65" t="n">
         <f aca="false">H287</f>

--- a/documentation/asciidoc/implementation_guide/attached_doc/excel_payload_input_file.xlsx
+++ b/documentation/asciidoc/implementation_guide/attached_doc/excel_payload_input_file.xlsx
@@ -221,7 +221,7 @@
     <t xml:space="preserve">rscKpi</t>
   </si>
   <si>
-    <t xml:space="preserve">GP1</t>
+    <t xml:space="preserve">GP01</t>
   </si>
   <si>
     <t xml:space="preserve">ProcessSuccess</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">2020-03-18T01:00:00Z</t>
   </si>
   <si>
-    <t xml:space="preserve">GP2</t>
+    <t xml:space="preserve">GP02</t>
   </si>
   <si>
     <t xml:space="preserve">CalculationFailed</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">GP3</t>
+    <t xml:space="preserve">GP03</t>
   </si>
   <si>
     <t xml:space="preserve">ProcessDelayed</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">DelayTime</t>
   </si>
   <si>
-    <t xml:space="preserve">BP1</t>
+    <t xml:space="preserve">BP01</t>
   </si>
   <si>
     <t xml:space="preserve">BusinessKpiAServiceA</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">34X-0000000068-Q</t>
   </si>
   <si>
-    <t xml:space="preserve">BP2</t>
+    <t xml:space="preserve">BP02</t>
   </si>
   <si>
     <t xml:space="preserve">BusinessKpiBServiceA</t>
   </si>
   <si>
-    <t xml:space="preserve">BP3</t>
+    <t xml:space="preserve">BP03</t>
   </si>
   <si>
     <t xml:space="preserve">BusinessKpiCServiceA</t>
@@ -1077,10 +1077,10 @@
   </sheetPr>
   <dimension ref="A1:U288"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
